--- a/ISIN Top Performing Chinese Funds.xlsx
+++ b/ISIN Top Performing Chinese Funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\MBF_Fidelity_Practitioner09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB519C0-2EF5-47EA-A5DA-2F18368A3D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9CB5A9-7924-494F-95E9-4307AC558F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E47F343-A784-4753-9078-7CBA528811C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{725B251A-C71C-441D-B0C8-641AEA681917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,93 +33,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>LU0416158003</t>
-  </si>
-  <si>
-    <t>LU0343414941</t>
-  </si>
-  <si>
-    <t>LU0435082457</t>
-  </si>
-  <si>
-    <t>LU0442751557</t>
-  </si>
-  <si>
-    <t>LU0194829528</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>KYG9179K1040</t>
   </si>
   <si>
     <t>JP90C0006HC9</t>
   </si>
   <si>
-    <t>LU0411390486</t>
-  </si>
-  <si>
-    <t>CNE100001435</t>
-  </si>
-  <si>
-    <t>GB00B6VNH756</t>
-  </si>
-  <si>
-    <t>CNE100001N45</t>
-  </si>
-  <si>
-    <t>KYG0081Y3814</t>
-  </si>
-  <si>
-    <t>JP90C0008GM6</t>
-  </si>
-  <si>
-    <t>KYG279031309</t>
-  </si>
-  <si>
-    <t>JP90C0008N10</t>
-  </si>
-  <si>
-    <t>LU0896577508</t>
-  </si>
-  <si>
-    <t>LU0952393584</t>
-  </si>
-  <si>
-    <t>HK0000138559</t>
-  </si>
-  <si>
-    <t>KYG9179K1040</t>
-  </si>
-  <si>
-    <t>LU0832972805</t>
-  </si>
-  <si>
-    <t>HK0000206075</t>
-  </si>
-  <si>
-    <t>TW000T0119B3</t>
-  </si>
-  <si>
-    <t>LU1065477348</t>
-  </si>
-  <si>
-    <t>IE00BN579213</t>
-  </si>
-  <si>
     <t>TH5969010005</t>
   </si>
   <si>
-    <t>LU1077607924</t>
-  </si>
-  <si>
-    <t>LU1064131003</t>
-  </si>
-  <si>
-    <t>HK0000255841</t>
+    <t>ISIN TOP 10%</t>
+  </si>
+  <si>
+    <t>ISIN LOWEST 10%</t>
   </si>
   <si>
     <t>JP90C000FNW0</t>
   </si>
   <si>
-    <t>ISIN</t>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>IE0031603545</t>
+  </si>
+  <si>
+    <t>IE00B1WL3F32</t>
+  </si>
+  <si>
+    <t>LU0945589645</t>
+  </si>
+  <si>
+    <t>HK0000039724</t>
+  </si>
+  <si>
+    <t>JP90C00063T4</t>
+  </si>
+  <si>
+    <t>FI0008808514</t>
+  </si>
+  <si>
+    <t>LU0289591256</t>
+  </si>
+  <si>
+    <t>TW000T4515Y0</t>
+  </si>
+  <si>
+    <t>TW000T4509Y3</t>
+  </si>
+  <si>
+    <t>TW000T2055A9</t>
+  </si>
+  <si>
+    <t>LI0033148425</t>
+  </si>
+  <si>
+    <t>HK0000041209</t>
+  </si>
+  <si>
+    <t>TW000T1403Y2</t>
+  </si>
+  <si>
+    <t>TH2085010001</t>
+  </si>
+  <si>
+    <t>LU1146622755</t>
+  </si>
+  <si>
+    <t>TW000T3731Y4</t>
+  </si>
+  <si>
+    <t>IE0004811224</t>
+  </si>
+  <si>
+    <t>TW000T2292A8</t>
+  </si>
+  <si>
+    <t>TH1859010007</t>
+  </si>
+  <si>
+    <t>HK0000284486</t>
+  </si>
+  <si>
+    <t>LU0721876364</t>
+  </si>
+  <si>
+    <t>LU1206782721</t>
+  </si>
+  <si>
+    <t>TH6661010004</t>
+  </si>
+  <si>
+    <t>LU0067412154</t>
+  </si>
+  <si>
+    <t>LU0431685097</t>
+  </si>
+  <si>
+    <t>HK0000318599</t>
+  </si>
+  <si>
+    <t>LU0051755006</t>
+  </si>
+  <si>
+    <t>TH6433010001</t>
+  </si>
+  <si>
+    <t>HK0000314713</t>
+  </si>
+  <si>
+    <t>IE00BPCWXQ50</t>
+  </si>
+  <si>
+    <t>HK0000068285</t>
+  </si>
+  <si>
+    <t>LU1697837729</t>
+  </si>
+  <si>
+    <t>LU1675172008</t>
   </si>
 </sst>
 </file>
@@ -470,161 +509,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1843C7B5-D518-45CC-8009-17A12B531EAC}">
-  <dimension ref="A1:A29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338210BD-CDF4-4D17-BB44-726E0C9CDECC}">
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.79946980000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>-0.85914749999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.94181090000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>-0.62279519999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1.1833743999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>-0.60772809999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.82723089999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>-1.1720474000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.75637790000000005</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>-0.4478972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.69419569999999997</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>-0.48320619999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.71183779999999997</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>-0.75059929999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.71289760000000002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>-0.39807799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>1.2258884999999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>-0.75517270000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.85851339999999998</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>-0.55510570000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.95233310000000004</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>-0.53786679999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1.2459857999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-0.44610610000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0.70585799999999999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-0.44363039999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0.75052129999999995</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>-0.37752170000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.80276820000000004</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>-0.36366080000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.97611689999999995</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>-0.61598399999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>1.2541717999999999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>-1.6190095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0.90094819999999998</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>-0.51234120000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.7677271</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-0.60821639999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.77433549999999995</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>-0.66376809999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1.6090603999999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>-0.55889250000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.74898109999999996</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-0.35185440000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1.2808229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-0.4942182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>1.2803777999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>-0.4242553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B27">
+        <v>1.21865</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>-0.71126389999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>1.2034056</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>-0.5253082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B29">
+        <v>1.2768507</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>-0.73825300000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.82153940000000003</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>-0.40909580000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1.3568159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>-0.5682237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1.0418072</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>-0.88622029999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1.3409861000000001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>-0.48088629999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1.4538491</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>-0.36224630000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.88160309999999997</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>-0.52990740000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1.2813311000000001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>-0.36560429999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>1.0202194</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <v>-0.38370009999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>1.0926960999999999</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>-0.45040459999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="B39">
+        <v>1.1367204</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>-0.41711130000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>-0.57600870000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>